--- a/Basegame Character Card Stats.xlsx
+++ b/Basegame Character Card Stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Stuff\Coding\ModdingSlayTheSpire\my_mods\git\StS-TheThiefMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Stuff\Coding\ModdingSlayTheSpire\my_mods\git\StS-DefaultModBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EEFA05-2E04-4B54-B63E-B7D0C7678B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4D4958-2D4A-4279-92AE-904F3C9F1E52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="278" xr2:uid="{AD2E1A73-3376-4E41-A344-6779F4DBBFBB}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Common</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Rarity Distribution:</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Ironclad</t>
@@ -74,6 +71,27 @@
   </si>
   <si>
     <t xml:space="preserve">The silent also has reflex and tactitian which are unplayable, costless uncommon skills, not counted in the table. </t>
+  </si>
+  <si>
+    <t>Type Distribution:</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Power</t>
   </si>
 </sst>
 </file>
@@ -96,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +139,38 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,14 +193,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -169,26 +228,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="32">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -249,12 +325,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -283,12 +353,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -305,6 +369,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -344,13 +482,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gremy Simple Dark" pivot="0" count="3" xr9:uid="{588A353C-8878-412F-8D27-6178F08779F5}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
+    <tableStyle name="Gremy Simple Dark" pivot="0" count="2" xr9:uid="{588A353C-8878-412F-8D27-6178F08779F5}">
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF99FF66"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFCC3399"/>
       <color rgb="FFD43838"/>
     </mruColors>
   </colors>
@@ -366,7 +507,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2121A485-2482-4860-9E30-DE2D287A6F7A}" name="Table2" displayName="Table2" ref="A6:D13" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2121A485-2482-4860-9E30-DE2D287A6F7A}" name="Table2" displayName="Table2" ref="A6:D13" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A6:D12" xr:uid="{D21865EF-8925-4FB2-A04B-9FCEFE947069}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -374,17 +515,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FF4810EE-C708-4E37-835D-7BB9DD96E48C}" name="Column1" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4B7223C6-8335-433A-9378-28EFCCDBF04D}" name="Silent" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2C581A80-D6F5-4915-9D06-BA8D353C068D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{BA528A4A-ED02-4115-906A-32084823D809}" name="Defect" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{FF4810EE-C708-4E37-835D-7BB9DD96E48C}" name="Cost" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4B7223C6-8335-433A-9378-28EFCCDBF04D}" name="Silent" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2C581A80-D6F5-4915-9D06-BA8D353C068D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BA528A4A-ED02-4115-906A-32084823D809}" name="Defect" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Gremy Simple Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53B8ADF9-4707-47E1-BDFA-3F006EA823AB}" name="Table24" displayName="Table24" ref="F6:I11" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53B8ADF9-4707-47E1-BDFA-3F006EA823AB}" name="Table24" displayName="Table24" ref="F6:I11" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="F6:I10" xr:uid="{CE12703D-A0E8-4EAA-9688-E5928D5B5BFB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -392,10 +533,23 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{28832C6B-C5A0-4B28-9B43-B972B39FC7E3}" name="Column1" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BBDEB0D6-F456-42CF-9E45-0769D86C8EBC}" name="Silent" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FE11044C-0B04-4341-B805-DD3FC475A98D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3473F5BA-E9A0-42BC-A801-C0AA1A01137A}" name="Defect" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{28832C6B-C5A0-4B28-9B43-B972B39FC7E3}" name="Rarity" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BBDEB0D6-F456-42CF-9E45-0769D86C8EBC}" name="Silent" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FE11044C-0B04-4341-B805-DD3FC475A98D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3473F5BA-E9A0-42BC-A801-C0AA1A01137A}" name="Defect" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="Gremy Simple Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FEC834A-9605-4DAB-8FC8-559DFE95E7CE}" name="Table242" displayName="Table242" ref="F16:I20" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="F16:I19" xr:uid="{AB9EBA6F-19E5-4878-B4BF-640070BDE1CB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{10488BD1-9981-44C8-B679-8617EA80CFDF}" name="Type" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2BD6E313-819A-4120-B615-A73747A8BFF9}" name="Silent" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{29092D1A-1D35-4F6E-9938-E644E403DC81}" name="Ironclad" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D8133038-6E03-4174-95AC-6C4D249B7298}" name="Defect" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Gremy Simple Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7173905A-9702-4724-9D18-DFCD7AC58563}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,72 +864,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -817,7 +971,7 @@
       <c r="D8" s="4">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="4">
@@ -843,14 +997,14 @@
       <c r="D9" s="4">
         <v>43</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>33</v>
       </c>
       <c r="H9" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="4">
         <v>36</v>
@@ -864,12 +1018,12 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4">
         <v>11</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="4">
@@ -896,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5">
         <f>SUBTOTAL(109,Table24[Silent])</f>
@@ -904,7 +1058,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUBTOTAL(109,Table24[Ironclad])</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="5">
         <f>SUBTOTAL(109,Table24[Defect])</f>
@@ -927,7 +1081,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
         <f>SUBTOTAL(109,Table2[Silent])</f>
@@ -935,69 +1089,146 @@
       </c>
       <c r="C13" s="1">
         <f>SUBTOTAL(109,Table2[Ironclad])</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="5">
         <f>SUBTOTAL(109,Table2[Defect])</f>
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="F15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="F17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2">
+        <v>32</v>
+      </c>
+      <c r="I17" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4">
+        <v>36</v>
+      </c>
+      <c r="H18" s="4">
+        <v>29</v>
+      </c>
+      <c r="I18" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SUBTOTAL(109,Table242[Silent])</f>
+        <v>75</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SUBTOTAL(109,Table242[Ironclad])</f>
+        <v>75</v>
+      </c>
+      <c r="I20" s="5">
+        <f>SUBTOTAL(109,Table242[Defect])</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="5"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A1:G3"/>
-    <mergeCell ref="A15:D16"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>